--- a/biology/Botanique/Parenthesome/Parenthesome.xlsx
+++ b/biology/Botanique/Parenthesome/Parenthesome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les cellules du champignons basidiomycète se trouvent des structures microscopiques appelées parenthèsomes ou pores septaux. Ils sont en forme de parenthèses et se trouvent de chaque côté des pores dans le dolipore septum qui sépare les cellules au sein d'une hyphe. Leur fonction n'a pas été établie, et leur composition n'a pas été complètement élucidée. Les variations de leur apparence sont utiles pour distinguer les espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les cellules du champignons basidiomycète se trouvent des structures microscopiques appelées parenthèsomes ou pores septaux. Ils sont en forme de parenthèses et se trouvent de chaque côté des pores dans le dolipore septum qui sépare les cellules au sein d'une hyphe. Leur fonction n'a pas été établie, et leur composition n'a pas été complètement élucidée. Les variations de leur apparence sont utiles pour distinguer les espèces.
 </t>
         </is>
       </c>
